--- a/src/test/resources/testData/Data.xlsx
+++ b/src/test/resources/testData/Data.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4204E18-4027-42BA-AB7F-3A2ACEBC64A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15405" windowHeight="5370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Welcome!</t>
   </si>
@@ -35,12 +37,33 @@
   </si>
   <si>
     <t>SigninDropDownList</t>
+  </si>
+  <si>
+    <t>Menu Bar DropDownList under 'Help &amp; Settings'</t>
+  </si>
+  <si>
+    <t>Your Account</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>Return Policy</t>
+  </si>
+  <si>
+    <t>Shipping Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigin DropDownList </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,10 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,17 +440,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -464,4 +488,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>